--- a/data1.xlsx
+++ b/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E98C1D3-556C-4838-9D28-0AD6CDAD7355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A1D0B-0664-4478-B558-3FBCC01995F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Position" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
   <si>
     <t>Type</t>
   </si>
@@ -40,68 +40,55 @@
     <t>Obj2</t>
   </si>
   <si>
+    <t>TE</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
+    <t>Drawer</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>DA</t>
+  </si>
+  <si>
+    <t>RL</t>
+  </si>
+  <si>
+    <t>Stuff</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Handle</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>x_coord</t>
+  </si>
+  <si>
+    <t>y_coord</t>
+  </si>
+  <si>
+    <t>z_coord</t>
+  </si>
+  <si>
     <t>L</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>x_coord</t>
-  </si>
-  <si>
-    <t>y_coord</t>
-  </si>
-  <si>
-    <t>z_coord</t>
-  </si>
-  <si>
     <t>Bot</t>
   </si>
   <si>
     <t>Done</t>
-  </si>
-  <si>
-    <t>DA</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>RL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>TL</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Handle</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Stuff</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Drawer</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>R</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -118,7 +105,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -157,13 +144,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -489,119 +482,118 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="6">
+        <v>19</v>
+      </c>
+      <c r="B2" s="8">
         <v>-0.2</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="9">
         <v>0</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="6">
+        <v>6</v>
+      </c>
+      <c r="B3" s="8">
         <v>0.2</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="9">
         <v>0</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="8">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="7">
+        <v>20</v>
+      </c>
+      <c r="B4" s="9">
         <v>0</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="9">
         <v>0</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="8">
         <v>0.6</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="6">
+        <v>11</v>
+      </c>
+      <c r="B5" s="8">
         <v>-0.3</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="9">
         <v>0</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="8">
         <v>0.3</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="6">
+        <v>7</v>
+      </c>
+      <c r="B6" s="8">
         <v>-0.2</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="9">
         <v>0</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="8">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="6">
+        <v>21</v>
+      </c>
+      <c r="B7" s="8">
         <v>0.3</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="9">
         <v>0</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="8">
         <v>0.4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -612,29 +604,27 @@
   </sheetPr>
   <dimension ref="A1:A4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
     </row>
-    <row r="4" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
     </row>
   </sheetData>
@@ -648,15 +638,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -676,61 +667,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -745,8 +683,8 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -755,8 +693,10 @@
     <col min="2" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -775,29 +715,52 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>14</v>
+      <c r="A2" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="2"/>
       <c r="L2" s="1"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -805,15 +768,21 @@
       <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -821,12 +790,19 @@
       <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="1"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -834,15 +810,21 @@
       <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="1"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
@@ -850,12 +832,19 @@
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="A7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="1"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
@@ -863,218 +852,466 @@
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="A8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="1"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="1"/>
       <c r="N8" s="2"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
-        <v>14</v>
+    <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+    </row>
+    <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+    </row>
+    <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+    </row>
+    <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+    </row>
+    <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+    </row>
+    <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+    </row>
+    <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+    </row>
+    <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+    </row>
+    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+    </row>
+    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+    </row>
+    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+    </row>
+    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+    </row>
+    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+    </row>
+    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+    </row>
+    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2"/>
+      <c r="H23" s="2"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+    </row>
+    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2"/>
+      <c r="H24" s="2"/>
+      <c r="I24" s="2"/>
+      <c r="J24" s="2"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+    </row>
+    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+    </row>
+    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+    </row>
+    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+    </row>
+    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D27" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+    </row>
+    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B1A1D0B-0664-4478-B558-3FBCC01995F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB3CFF9-C73D-4585-81A8-62217928FC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="8130" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Position" sheetId="1" r:id="rId1"/>
@@ -18,12 +18,23 @@
     <sheet name="Therbligs(L)" sheetId="3" r:id="rId3"/>
     <sheet name="Therbligs(R)" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
   <si>
     <t>Type</t>
   </si>
@@ -40,9 +51,6 @@
     <t>Obj2</t>
   </si>
   <si>
-    <t>TE</t>
-  </si>
-  <si>
     <t>R</t>
   </si>
   <si>
@@ -61,9 +69,6 @@
     <t>Stuff</t>
   </si>
   <si>
-    <t>TL</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -89,6 +94,30 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RL</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>M</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -144,7 +173,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -174,6 +203,9 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,21 +526,21 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="D1" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="8">
         <v>-0.2</v>
@@ -522,7 +554,7 @@
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8">
         <v>0.2</v>
@@ -536,7 +568,7 @@
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
@@ -550,7 +582,7 @@
     </row>
     <row r="5" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B5" s="8">
         <v>-0.3</v>
@@ -564,7 +596,7 @@
     </row>
     <row r="6" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="8">
         <v>-0.2</v>
@@ -578,7 +610,7 @@
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="8">
         <v>0.3</v>
@@ -613,12 +645,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -638,10 +670,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -650,7 +682,7 @@
     <col min="2" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -660,14 +692,17 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
     </row>
   </sheetData>
@@ -683,17 +718,17 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="13.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
@@ -701,7 +736,7 @@
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -709,13 +744,15 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -727,15 +764,17 @@
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>25</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
@@ -749,14 +788,13 @@
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="2"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
@@ -769,17 +807,16 @@
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
@@ -791,14 +828,13 @@
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2"/>
+      <c r="E5" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -811,15 +847,17 @@
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
@@ -833,14 +871,13 @@
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="E7" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -853,15 +890,17 @@
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -875,14 +914,13 @@
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
-      <c r="D9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="E9" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -895,15 +933,17 @@
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -917,14 +957,13 @@
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="D11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" s="2"/>
+      <c r="E11" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -937,17 +976,16 @@
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
-      <c r="D12" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -959,14 +997,13 @@
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
-      <c r="D13" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" s="2"/>
+      <c r="E13" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
@@ -979,15 +1016,17 @@
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -1001,14 +1040,13 @@
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
-      <c r="D15" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2"/>
+      <c r="E15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
@@ -1021,17 +1059,16 @@
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F16" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1043,14 +1080,13 @@
     </row>
     <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
-      <c r="D17" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" s="2"/>
+      <c r="E17" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
@@ -1063,15 +1099,17 @@
     </row>
     <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C18" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -1085,14 +1123,13 @@
     </row>
     <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
-      <c r="D19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
@@ -1105,15 +1142,17 @@
     </row>
     <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -1127,14 +1166,13 @@
     </row>
     <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -1147,15 +1185,17 @@
     </row>
     <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -1169,14 +1209,13 @@
     </row>
     <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
@@ -1189,15 +1228,17 @@
     </row>
     <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -1211,14 +1252,13 @@
     </row>
     <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
@@ -1231,15 +1271,17 @@
     </row>
     <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>6</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -1253,14 +1295,13 @@
     </row>
     <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
@@ -1273,17 +1314,16 @@
     </row>
     <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F28" s="2"/>
+        <v>6</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28" s="2"/>
@@ -1295,14 +1335,13 @@
     </row>
     <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>

--- a/data1.xlsx
+++ b/data1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yuyulu\Documents\thesis\HRC_taskAlloc_w.TB_w.AR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\OneDrive\Document\NTHU\master\HRC_taskalloc_w.TB_w.AR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFB3CFF9-C73D-4585-81A8-62217928FC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B2F40A-9DD5-4B4E-AFA2-18B07985B7AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="16440" windowHeight="28440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Position" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="27">
   <si>
     <t>Type</t>
   </si>
@@ -85,12 +85,6 @@
   </si>
   <si>
     <t>z_coord</t>
-  </si>
-  <si>
-    <t>L</t>
-  </si>
-  <si>
-    <t>Bot</t>
   </si>
   <si>
     <t>Done</t>
@@ -117,6 +111,18 @@
   </si>
   <si>
     <t>B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>LH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RH</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -173,14 +179,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -203,9 +204,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,69 +512,71 @@
   </sheetPr>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5703125" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.5703125" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5703125" style="8" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" style="7" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="8">
+        <v>24</v>
+      </c>
+      <c r="B2" s="5">
         <v>-0.2</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="6">
         <v>0</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="8">
+        <v>25</v>
+      </c>
+      <c r="B3" s="5">
         <v>0.2</v>
       </c>
-      <c r="C3" s="9">
+      <c r="C3" s="6">
         <v>0</v>
       </c>
-      <c r="D3" s="8">
+      <c r="D3" s="5">
         <v>0.1</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="9">
+        <v>26</v>
+      </c>
+      <c r="B4" s="6">
         <v>0</v>
       </c>
-      <c r="C4" s="9">
+      <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="5">
         <v>0.6</v>
       </c>
     </row>
@@ -584,13 +584,13 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="5">
         <v>-0.3</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="6">
         <v>0</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="5">
         <v>0.3</v>
       </c>
     </row>
@@ -598,27 +598,27 @@
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="5">
         <v>-0.2</v>
       </c>
-      <c r="C6" s="9">
+      <c r="C6" s="6">
         <v>0</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="5">
         <v>0.3</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="8">
+        <v>17</v>
+      </c>
+      <c r="B7" s="5">
         <v>0.3</v>
       </c>
-      <c r="C7" s="9">
+      <c r="C7" s="6">
         <v>0</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="5">
         <v>0.4</v>
       </c>
     </row>
@@ -640,11 +640,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
@@ -678,8 +678,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -692,8 +692,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>24</v>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -703,7 +703,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
+      <c r="A2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -718,25 +718,25 @@
   </sheetPr>
   <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="13.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="6.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -744,8 +744,8 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
-        <v>24</v>
+      <c r="D1" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>3</v>
@@ -753,604 +753,319 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
     </row>
     <row r="2" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>20</v>
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+        <v>23</v>
+      </c>
       <c r="J2" s="1"/>
-      <c r="K2" s="2"/>
       <c r="L2" s="1"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
     </row>
     <row r="3" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
+      <c r="E3" t="s">
+        <v>6</v>
+      </c>
       <c r="J3" s="1"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
       <c r="M3" s="1"/>
-      <c r="N3" s="2"/>
     </row>
     <row r="4" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="E4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" t="s">
+        <v>6</v>
+      </c>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
     </row>
     <row r="5" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
+      <c r="E5" t="s">
+        <v>6</v>
+      </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
       <c r="M5" s="1"/>
-      <c r="N5" s="2"/>
     </row>
     <row r="6" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="E7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
       <c r="J7" s="1"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
       <c r="J8" s="1"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
       <c r="M8" s="1"/>
-      <c r="N8" s="2"/>
     </row>
     <row r="9" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="E9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="11" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="12" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="13" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="E13" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="14" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>20</v>
+      <c r="A14" t="s">
+        <v>18</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
-      <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-      <c r="N14" s="2"/>
+        <v>23</v>
+      </c>
     </row>
     <row r="15" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="E15" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
-      <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-      <c r="N15" s="2"/>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="16" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="E16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
-      <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-      <c r="M16" s="2"/>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="E17" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>5</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>20</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
-      <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-      <c r="M18" s="2"/>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>7</v>
       </c>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
-      <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B24" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E22" s="2"/>
-      <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
-      <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="L23" s="2"/>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-    </row>
-    <row r="25" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
         <v>9</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F25" s="2"/>
-      <c r="G25" s="2"/>
-      <c r="H25" s="2"/>
-      <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-      <c r="N25" s="2"/>
-    </row>
-    <row r="26" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2"/>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
-      <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
-    </row>
-    <row r="27" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-    </row>
-    <row r="28" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="1:14" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="E29" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
